--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gal-Gpr151.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gal-Gpr151.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Gal</t>
+  </si>
+  <si>
+    <t>Gpr151</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gal</t>
-  </si>
-  <si>
-    <t>Gpr151</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.926742666666667</v>
+        <v>0.48067</v>
       </c>
       <c r="H2">
-        <v>14.780228</v>
+        <v>1.44201</v>
       </c>
       <c r="I2">
-        <v>0.666446655488151</v>
+        <v>0.1949338371837906</v>
       </c>
       <c r="J2">
-        <v>0.666446655488151</v>
+        <v>0.1949338371837907</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5470743333333333</v>
+        <v>0.3933823333333333</v>
       </c>
       <c r="N2">
-        <v>1.641223</v>
+        <v>1.180147</v>
       </c>
       <c r="O2">
-        <v>0.4209445985475409</v>
+        <v>0.3432826356401089</v>
       </c>
       <c r="P2">
-        <v>0.4209445985475409</v>
+        <v>0.3432826356401089</v>
       </c>
       <c r="Q2">
-        <v>2.695294459871556</v>
+        <v>0.1890870861633333</v>
       </c>
       <c r="R2">
-        <v>24.257650138844</v>
+        <v>1.70178377547</v>
       </c>
       <c r="S2">
-        <v>0.280537119847811</v>
+        <v>0.06691740140389152</v>
       </c>
       <c r="T2">
-        <v>0.280537119847811</v>
+        <v>0.06691740140389153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.926742666666667</v>
+        <v>0.48067</v>
       </c>
       <c r="H3">
-        <v>14.780228</v>
+        <v>1.44201</v>
       </c>
       <c r="I3">
-        <v>0.666446655488151</v>
+        <v>0.1949338371837906</v>
       </c>
       <c r="J3">
-        <v>0.666446655488151</v>
+        <v>0.1949338371837907</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.494932</v>
       </c>
       <c r="O3">
-        <v>0.3834235509713624</v>
+        <v>0.4348476902137948</v>
       </c>
       <c r="P3">
-        <v>0.3834235509713624</v>
+        <v>0.4348476902137948</v>
       </c>
       <c r="Q3">
-        <v>2.455048422721778</v>
+        <v>0.2395229881466666</v>
       </c>
       <c r="R3">
-        <v>22.095435804496</v>
+        <v>2.15570689332</v>
       </c>
       <c r="S3">
-        <v>0.2555313431802551</v>
+        <v>0.08476652884388332</v>
       </c>
       <c r="T3">
-        <v>0.2555313431802551</v>
+        <v>0.08476652884388333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.926742666666667</v>
+        <v>0.48067</v>
       </c>
       <c r="H4">
-        <v>14.780228</v>
+        <v>1.44201</v>
       </c>
       <c r="I4">
-        <v>0.666446655488151</v>
+        <v>0.1949338371837906</v>
       </c>
       <c r="J4">
-        <v>0.666446655488151</v>
+        <v>0.1949338371837907</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>0.25425</v>
       </c>
       <c r="N4">
-        <v>0.76275</v>
+        <v>0.7627499999999999</v>
       </c>
       <c r="O4">
-        <v>0.1956318504810966</v>
+        <v>0.2218696741460963</v>
       </c>
       <c r="P4">
-        <v>0.1956318504810966</v>
+        <v>0.2218696741460963</v>
       </c>
       <c r="Q4">
-        <v>1.252624323</v>
+        <v>0.1222103475</v>
       </c>
       <c r="R4">
-        <v>11.273618907</v>
+        <v>1.0998931275</v>
       </c>
       <c r="S4">
-        <v>0.1303781924600849</v>
+        <v>0.04324990693601581</v>
       </c>
       <c r="T4">
-        <v>0.1303781924600849</v>
+        <v>0.04324990693601582</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.48067</v>
+        <v>1.985141</v>
       </c>
       <c r="H5">
-        <v>1.44201</v>
+        <v>5.955423</v>
       </c>
       <c r="I5">
-        <v>0.06502083335118163</v>
+        <v>0.8050661628162092</v>
       </c>
       <c r="J5">
-        <v>0.06502083335118163</v>
+        <v>0.8050661628162094</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5470743333333333</v>
+        <v>0.3933823333333333</v>
       </c>
       <c r="N5">
-        <v>1.641223</v>
+        <v>1.180147</v>
       </c>
       <c r="O5">
-        <v>0.4209445985475409</v>
+        <v>0.3432826356401089</v>
       </c>
       <c r="P5">
-        <v>0.4209445985475409</v>
+        <v>0.3432826356401089</v>
       </c>
       <c r="Q5">
-        <v>0.2629622198033333</v>
+        <v>0.7809193985756665</v>
       </c>
       <c r="R5">
-        <v>2.36665997823</v>
+        <v>7.028274587180999</v>
       </c>
       <c r="S5">
-        <v>0.02737016859223971</v>
+        <v>0.2763652342362173</v>
       </c>
       <c r="T5">
-        <v>0.02737016859223971</v>
+        <v>0.2763652342362174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.48067</v>
+        <v>1.985141</v>
       </c>
       <c r="H6">
-        <v>1.44201</v>
+        <v>5.955423</v>
       </c>
       <c r="I6">
-        <v>0.06502083335118163</v>
+        <v>0.8050661628162092</v>
       </c>
       <c r="J6">
-        <v>0.06502083335118163</v>
+        <v>0.8050661628162094</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.494932</v>
       </c>
       <c r="O6">
-        <v>0.3834235509713624</v>
+        <v>0.4348476902137948</v>
       </c>
       <c r="P6">
-        <v>0.3834235509713624</v>
+        <v>0.4348476902137948</v>
       </c>
       <c r="Q6">
-        <v>0.2395229881466666</v>
+        <v>0.9892169351373331</v>
       </c>
       <c r="R6">
-        <v>2.15570689332</v>
+        <v>8.902952416235999</v>
       </c>
       <c r="S6">
-        <v>0.02493051881062725</v>
+        <v>0.3500811613699115</v>
       </c>
       <c r="T6">
-        <v>0.02493051881062725</v>
+        <v>0.3500811613699115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.48067</v>
+        <v>1.985141</v>
       </c>
       <c r="H7">
-        <v>1.44201</v>
+        <v>5.955423</v>
       </c>
       <c r="I7">
-        <v>0.06502083335118163</v>
+        <v>0.8050661628162092</v>
       </c>
       <c r="J7">
-        <v>0.06502083335118163</v>
+        <v>0.8050661628162094</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,211 +865,25 @@
         <v>0.25425</v>
       </c>
       <c r="N7">
-        <v>0.76275</v>
+        <v>0.7627499999999999</v>
       </c>
       <c r="O7">
-        <v>0.1956318504810966</v>
+        <v>0.2218696741460963</v>
       </c>
       <c r="P7">
-        <v>0.1956318504810966</v>
+        <v>0.2218696741460963</v>
       </c>
       <c r="Q7">
-        <v>0.1222103475</v>
+        <v>0.5047220992499999</v>
       </c>
       <c r="R7">
-        <v>1.0998931275</v>
+        <v>4.542498893249999</v>
       </c>
       <c r="S7">
-        <v>0.01272014594831467</v>
+        <v>0.1786197672100804</v>
       </c>
       <c r="T7">
-        <v>0.01272014594831467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.985141</v>
-      </c>
-      <c r="H8">
-        <v>5.955423</v>
-      </c>
-      <c r="I8">
-        <v>0.2685325111606675</v>
-      </c>
-      <c r="J8">
-        <v>0.2685325111606675</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.5470743333333333</v>
-      </c>
-      <c r="N8">
-        <v>1.641223</v>
-      </c>
-      <c r="O8">
-        <v>0.4209445985475409</v>
-      </c>
-      <c r="P8">
-        <v>0.4209445985475409</v>
-      </c>
-      <c r="Q8">
-        <v>1.086019689147667</v>
-      </c>
-      <c r="R8">
-        <v>9.774177202329</v>
-      </c>
-      <c r="S8">
-        <v>0.1130373101074902</v>
-      </c>
-      <c r="T8">
-        <v>0.1130373101074902</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.985141</v>
-      </c>
-      <c r="H9">
-        <v>5.955423</v>
-      </c>
-      <c r="I9">
-        <v>0.2685325111606675</v>
-      </c>
-      <c r="J9">
-        <v>0.2685325111606675</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.4983106666666666</v>
-      </c>
-      <c r="N9">
-        <v>1.494932</v>
-      </c>
-      <c r="O9">
-        <v>0.3834235509713624</v>
-      </c>
-      <c r="P9">
-        <v>0.3834235509713624</v>
-      </c>
-      <c r="Q9">
-        <v>0.9892169351373331</v>
-      </c>
-      <c r="R9">
-        <v>8.902952416235999</v>
-      </c>
-      <c r="S9">
-        <v>0.1029616889804801</v>
-      </c>
-      <c r="T9">
-        <v>0.1029616889804801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.985141</v>
-      </c>
-      <c r="H10">
-        <v>5.955423</v>
-      </c>
-      <c r="I10">
-        <v>0.2685325111606675</v>
-      </c>
-      <c r="J10">
-        <v>0.2685325111606675</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.25425</v>
-      </c>
-      <c r="N10">
-        <v>0.76275</v>
-      </c>
-      <c r="O10">
-        <v>0.1956318504810966</v>
-      </c>
-      <c r="P10">
-        <v>0.1956318504810966</v>
-      </c>
-      <c r="Q10">
-        <v>0.50472209925</v>
-      </c>
-      <c r="R10">
-        <v>4.54249889325</v>
-      </c>
-      <c r="S10">
-        <v>0.05253351207269711</v>
-      </c>
-      <c r="T10">
-        <v>0.05253351207269711</v>
+        <v>0.1786197672100804</v>
       </c>
     </row>
   </sheetData>
